--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3698.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3698.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.385465480841148</v>
+        <v>1.299842119216919</v>
       </c>
       <c r="B1">
-        <v>2.884762526585133</v>
+        <v>3.287906169891357</v>
       </c>
       <c r="C1">
-        <v>7.650184947349086</v>
+        <v>4.665264129638672</v>
       </c>
       <c r="D1">
-        <v>1.918440928022628</v>
+        <v>2.246706247329712</v>
       </c>
       <c r="E1">
-        <v>0.9970230185480957</v>
+        <v>1.501857757568359</v>
       </c>
     </row>
   </sheetData>
